--- a/code/src/ТКП.xlsx
+++ b/code/src/ТКП.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>№ п/п</t>
   </si>
@@ -174,9 +171,6 @@
     <t>Упаковка</t>
   </si>
   <si>
-    <t>ЗАО "НПО Регулятор"</t>
-  </si>
-  <si>
     <t>Давление настройки без противодавления, 0(изб.)</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>Пилотный предохранительный, сбросной, угловой, открытого типа</t>
+  </si>
+  <si>
+    <t>АО "НПО Регулятор"</t>
+  </si>
+  <si>
+    <t>Пружина №</t>
   </si>
 </sst>
 </file>
@@ -620,45 +620,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Версия отдела продаж"/>
-      <sheetName val="Техника отдела продаж"/>
-      <sheetName val="Расчеты отдела продаж (старые)"/>
-      <sheetName val="Расчеты отдела продаж (новые)"/>
-      <sheetName val="Расчеты отдела продаж"/>
-      <sheetName val="Эскиз отдела продаж"/>
-      <sheetName val="КСД конструкторов"/>
-      <sheetName val="КСД конструкторов для ревизии"/>
-      <sheetName val="Служебная записка ОГК"/>
-      <sheetName val="Акт ПСИ"/>
-      <sheetName val="Паспорт ОТК"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="84" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -992,25 +953,25 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AK1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="AO1" s="25" t="s">
         <v>11</v>
@@ -1115,9 +1076,8 @@
       <c r="AE2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="6" t="str">
-        <f>IF('[1]Версия отдела продаж'!B6="Пружинный","Пружина №","Фильтр")</f>
-        <v>Фильтр</v>
+      <c r="AF2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>39</v>
@@ -1194,7 +1154,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="12"/>
@@ -1219,7 +1179,7 @@
       <c r="AZ3" s="11"/>
       <c r="BA3" s="11"/>
       <c r="BB3" s="13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/code/src/ТКП.xlsx
+++ b/code/src/ТКП.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>№ п/п</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Пилотный предохранительный, сбросной, угловой, открытого типа</t>
-  </si>
-  <si>
-    <t>АО "НПО Регулятор"</t>
   </si>
   <si>
     <t>Пружина №</t>
@@ -273,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -438,45 +435,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -486,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,101 +473,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,134 +837,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="84" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="88.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="54" width="13.28515625" style="18" customWidth="1"/>
+    <col min="1" max="54" width="15.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:54" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="19" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AM1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AO1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="28" t="s">
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="31" t="s">
+      <c r="AY1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="31" t="s">
+      <c r="AZ1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BA1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="23" t="s">
+      <c r="BB1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+    <row r="2" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,18 +1029,18 @@
         <v>38</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
       <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1113,88 +1065,640 @@
       <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="24"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="22"/>
     </row>
-    <row r="3" spans="1:54" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="10" t="s">
+    <row r="3" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="30"/>
+    </row>
+    <row r="4" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+    </row>
+    <row r="5" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+    </row>
+    <row r="6" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+    </row>
+    <row r="7" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+    </row>
+    <row r="8" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+    </row>
+    <row r="9" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+    </row>
+    <row r="10" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35"/>
+    </row>
+    <row r="11" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="35"/>
+    </row>
+    <row r="12" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="35"/>
+    </row>
+    <row r="13" spans="1:54" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:AG1"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="AO1:AV1"/>
     <mergeCell ref="AW1:AW2"/>
@@ -1202,13 +1706,17 @@
     <mergeCell ref="AY1:AY2"/>
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:AG1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/src/ТКП.xlsx
+++ b/code/src/ТКП.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\Регулятор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\RegConf\code\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,80 +413,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +771,7 @@
   <dimension ref="A1:BB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -780,231 +780,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="16" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AI1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AL1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AN1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="8" t="s">
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AY1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BA1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="18" t="s">
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AR2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AS2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AV2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
     </row>
     <row r="3" spans="1:54" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1623,17 +1625,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:AG1"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="AO1:AV1"/>
     <mergeCell ref="AW1:AW2"/>
@@ -1641,13 +1639,17 @@
     <mergeCell ref="AY1:AY2"/>
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:AG1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
